--- a/subjects.xlsx
+++ b/subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\wed development\semeser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58293178-DD22-4F42-9075-1B68B9A1F47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4254622C-6E3F-4F15-9BC7-68E0488269C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{82E6048D-3A5F-4860-856D-112B12198C03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{82E6048D-3A5F-4860-856D-112B12198C03}"/>
   </bookViews>
   <sheets>
     <sheet name="semester1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>code</t>
   </si>
@@ -215,6 +215,61 @@
   </si>
   <si>
     <t>Object Oriented Programming Laboratory</t>
+  </si>
+  <si>
+    <t>CS3452</t>
+  </si>
+  <si>
+    <t>CS3491</t>
+  </si>
+  <si>
+    <t>CS3492</t>
+  </si>
+  <si>
+    <t>CS3401</t>
+  </si>
+  <si>
+    <t>CS3451</t>
+  </si>
+  <si>
+    <t>GE3451</t>
+  </si>
+  <si>
+    <t>CS3461</t>
+  </si>
+  <si>
+    <t>CS3481</t>
+  </si>
+  <si>
+    <t>Theory of Computation</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence and Machine Learning</t>
+  </si>
+  <si>
+    <t>Database Management Systems</t>
+  </si>
+  <si>
+    <t>Introduction to Operating Systems</t>
+  </si>
+  <si>
+    <t>Environmental Sciences and Sustainability</t>
+  </si>
+  <si>
+    <t>Operating Systems Laboratory</t>
+  </si>
+  <si>
+    <t>Database Management
+Systems Laboratory</t>
+  </si>
+  <si>
+    <t>NM1022</t>
+  </si>
+  <si>
+    <t>Naan Muthalvan</t>
   </si>
 </sst>
 </file>
@@ -856,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51881F5-DCC3-4D67-AADE-842A7C306F0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -982,13 +1037,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942E0FF5-D106-44B9-8A46-07315E5120A0}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1001,6 +1059,105 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
